--- a/TransferList/ExcelToJson.xlsx
+++ b/TransferList/ExcelToJson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProjects\Jexcel\TransferList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36775E0-8DA8-4858-894E-9A0705264278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36370CD-BAD9-471C-87BE-BD2B0E18525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="4740" windowWidth="33450" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="4740" windowWidth="26340" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,14 +59,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\PythonProjects\TestExcelToJson\New\1.json</t>
+    <t>D:\PythonProjects\TestExcelToJson\Json\1.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\PythonProjects\TestExcelToJson\New\2.json</t>
-  </si>
-  <si>
-    <t>D:\PythonProjects\TestExcelToJson\New\3.json</t>
+    <t>D:\PythonProjects\TestExcelToJson\Json\2.json</t>
+  </si>
+  <si>
+    <t>D:\PythonProjects\TestExcelToJson\Json\3.json</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/TransferList/ExcelToJson.xlsx
+++ b/TransferList/ExcelToJson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProjects\Jexcel\TransferList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36370CD-BAD9-471C-87BE-BD2B0E18525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F8452E-773C-4572-A001-F56C776347BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="4740" windowWidth="26340" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Excel</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,26 +47,81 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>D:\PythonProjects\TestExcelToJson\Excel\Simple_Dict_List.5.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\PythonProjects\TestExcelToJson\Excel\ChainedList.1.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\PythonProjects\TestExcelToJson\Excel\Simple_Dict_List.2.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\PythonProjects\TestExcelToJson\Json\1.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\PythonProjects\TestExcelToJson\Json\2.json</t>
-  </si>
-  <si>
-    <t>D:\PythonProjects\TestExcelToJson\Json\3.json</t>
+    <t>D:\PythonProjects\Jexcel\Samples\Excels1\ChainedList.1.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\Excels1\ChainedList.1-var.1.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\Excels1\Simple_Dict_List.1.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\Excels1\Simple_Dict_List.1-Complex.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\Excels1\Simple_Dict_List.2.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\Excels1\Simple_Dict_List.3.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\Excels1\Simple_Dict_List.4.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\Excels1\Simple_Dict_List.5.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\Excels1\Simple_Dict_List.5-var.1.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\Excels1\Simple_Dict_List.5-var.2.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\Excels2\1.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\OutJson1\ChainedList.1.json</t>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\OutJson1\ChainedList.1-var.1.json</t>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\OutJson1\Simple_Dict_List.1.json</t>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\OutJson1\Simple_Dict_List.1-Complex.json</t>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\OutJson1\Simple_Dict_List.2.json</t>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\OutJson1\Simple_Dict_List.3.json</t>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\OutJson1\Simple_Dict_List.4.json</t>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\OutJson1\Simple_Dict_List.5.json</t>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\OutJson1\Simple_Dict_List.5-var.1.json</t>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\OutJson1\Simple_Dict_List.5-var.2.json</t>
+  </si>
+  <si>
+    <t>D:\PythonProjects\Jexcel\Samples\OutJson2\1.json</t>
   </si>
 </sst>
 </file>
@@ -116,10 +171,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,16 +459,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.125" customWidth="1"/>
-    <col min="2" max="2" width="49.375" customWidth="1"/>
+    <col min="1" max="1" width="70.5" customWidth="1"/>
+    <col min="2" max="2" width="69.375" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
@@ -434,58 +492,191 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
